--- a/documents/Lập trình Javascript cơ bản.xlsx
+++ b/documents/Lập trình Javascript cơ bản.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\ĐỒ ÁN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\VHL 25\HapoLearn\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0D3368-B5CC-4885-8E13-305E61FDCE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72E8180-6AF5-4F50-A54F-D5CC3D1B9ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3105" yWindow="1590" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,13 +82,13 @@
     <t>https://www.youtube.com/watch?v=5Jy8XeMWiuA&amp;list=PLkY6Xj8Sg8-uPZnTdScfuH0xD-O6Kb-V-&amp;index=28&amp;ab_channel=CodersX</t>
   </si>
   <si>
-    <t>Bài 9 - Tổng hợp</t>
-  </si>
-  <si>
     <t>file</t>
   </si>
   <si>
     <t>https://websitesetup.org/wp-content/uploads/2020/09/Javascript-Cheat-Sheet.pdf</t>
+  </si>
+  <si>
+    <t>Bài 0 - Tổng hợp</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -488,21 +488,21 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -510,10 +510,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -521,10 +521,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -532,10 +532,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -543,10 +543,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -554,10 +554,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -565,10 +565,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -576,13 +576,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -590,15 +590,15 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{4DCDAC87-B57E-4A6E-9AE9-1348A01D1C0F}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{3181AFF3-1DBF-4766-A1E2-97A292FD3C1B}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{FE6F49AE-42CC-4111-B02F-524D865B63A5}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{AC7ADD33-E284-4C69-85A5-37EAE876E264}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{171C95A5-015C-4BA4-A141-D93A479D557A}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{06D55DC5-E4C1-4F1F-B3F2-8AEA703841B6}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{FC59FA37-73A9-45D1-A8D6-0C8288A2FE93}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{74BFB6B3-3A03-450F-BABD-FE4A10637983}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{D3BDBE46-A5EC-4FD6-A01C-74A9F5D4D325}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{4DCDAC87-B57E-4A6E-9AE9-1348A01D1C0F}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{3181AFF3-1DBF-4766-A1E2-97A292FD3C1B}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{FE6F49AE-42CC-4111-B02F-524D865B63A5}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{AC7ADD33-E284-4C69-85A5-37EAE876E264}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{171C95A5-015C-4BA4-A141-D93A479D557A}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{06D55DC5-E4C1-4F1F-B3F2-8AEA703841B6}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{FC59FA37-73A9-45D1-A8D6-0C8288A2FE93}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{74BFB6B3-3A03-450F-BABD-FE4A10637983}"/>
+    <hyperlink ref="B3" r:id="rId9" xr:uid="{D3BDBE46-A5EC-4FD6-A01C-74A9F5D4D325}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
